--- a/quick_sort.xlsx
+++ b/quick_sort.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces\UFMG-DCC\2022\AmbComp\Trabalho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46165BB3-A3EC-4A12-A2D0-B1419060DC56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCE4880-F424-4209-AFAE-A1DB4D3577D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26190" yWindow="4425" windowWidth="21600" windowHeight="11295" xr2:uid="{CB8E2043-4EB1-46C5-B4E8-618440878A94}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CB8E2043-4EB1-46C5-B4E8-618440878A94}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -32,9 +32,29 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="5">
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>i=j</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -43,26 +63,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="20"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="4"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="20"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -74,32 +100,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -151,45 +162,54 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -207,6 +227,372 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Seta: para a Direita 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BBB7586-2872-26AA-5905-6A46E1D5F44B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6067425" y="914400"/>
+          <a:ext cx="1019175" cy="76200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Seta: para a Direita 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C913C116-019E-4810-9898-70506DE64DDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742951" y="4867275"/>
+          <a:ext cx="285750" cy="66675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Seta: para a Direita 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{890D6AD1-3B56-4D97-8500-2FFBB5286E52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3429000" y="4276725"/>
+          <a:ext cx="1085850" cy="47626"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Chave Direita 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5C9D27E-5EF7-A409-7297-922832FD3317}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7305675" y="323850"/>
+          <a:ext cx="885825" cy="3000375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>247649</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Chave Direita 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBB0ED10-9F39-4EAC-88AE-0770B1B24DC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5629275" y="3467099"/>
+          <a:ext cx="742950" cy="1914526"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1289648" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="CaixaDeTexto 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ABB3AB7-AB45-2C3C-2C70-B12FC00FA433}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8239125" y="1676400"/>
+          <a:ext cx="1289648" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>Orderna</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1" baseline="0"/>
+            <a:t> Iteração 1</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -506,10 +892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E902AB43-500A-41A3-98D1-FACE4BA10C87}">
-  <dimension ref="B1:H10"/>
+  <dimension ref="B2:V45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:H9"/>
+      <selection activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5703125" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -517,216 +903,991 @@
     <col min="1" max="16384" width="6.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6">
+    <row r="2" spans="7:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="7:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <f>K3+1</f>
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" ref="M3:Q3" si="0">L3+1</f>
+        <v>2</v>
+      </c>
+      <c r="N3" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="P3" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="Q3" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="7:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3">
         <v>8</v>
       </c>
-      <c r="D2" s="6">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="M4" s="3">
+        <v>3</v>
+      </c>
+      <c r="N4" s="5">
         <v>9</v>
       </c>
-      <c r="F2" s="6">
-        <v>4</v>
-      </c>
-      <c r="G2" s="6">
-        <v>5</v>
-      </c>
-      <c r="H2" s="4">
+      <c r="O4" s="3">
+        <v>4</v>
+      </c>
+      <c r="P4" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
+    <row r="5" spans="7:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="7:17" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K6" s="7">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7">
+        <f>K6+1</f>
+        <v>1</v>
+      </c>
+      <c r="M6" s="7">
+        <f>L6+1</f>
+        <v>2</v>
+      </c>
+      <c r="N6" s="7">
+        <f>M6+1</f>
+        <v>3</v>
+      </c>
+      <c r="O6" s="7">
+        <f>N6+1</f>
+        <v>4</v>
+      </c>
+      <c r="P6" s="7">
+        <f>O6+1</f>
+        <v>5</v>
+      </c>
+      <c r="Q6" s="7">
+        <f t="shared" ref="Q6" si="1">P6+1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="7:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3">
         <v>8</v>
       </c>
-      <c r="D3" s="3">
-        <v>3</v>
-      </c>
-      <c r="E3" s="6">
+      <c r="M7" s="3">
+        <v>3</v>
+      </c>
+      <c r="N7" s="3">
         <v>7</v>
       </c>
-      <c r="F3" s="6">
-        <v>4</v>
-      </c>
-      <c r="G3" s="8">
-        <v>5</v>
-      </c>
-      <c r="H3" s="9">
+      <c r="O7" s="3">
+        <v>4</v>
+      </c>
+      <c r="P7" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6">
-        <v>3</v>
-      </c>
-      <c r="D4" s="7">
+    <row r="8" spans="7:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="7:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K9" s="7">
+        <v>0</v>
+      </c>
+      <c r="L9" s="7">
+        <f>K9+1</f>
+        <v>1</v>
+      </c>
+      <c r="M9" s="7">
+        <f>L9+1</f>
+        <v>2</v>
+      </c>
+      <c r="N9" s="7">
+        <f>M9+1</f>
+        <v>3</v>
+      </c>
+      <c r="O9" s="7">
+        <f>N9+1</f>
+        <v>4</v>
+      </c>
+      <c r="P9" s="7">
+        <f>O9+1</f>
+        <v>5</v>
+      </c>
+      <c r="Q9" s="7">
+        <f t="shared" ref="Q9" si="2">P9+1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="7:17" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3">
         <v>8</v>
       </c>
-      <c r="E4" s="6">
+      <c r="M10" s="3">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3">
         <v>7</v>
       </c>
-      <c r="F4" s="6">
-        <v>4</v>
-      </c>
-      <c r="G4" s="8">
-        <v>5</v>
-      </c>
-      <c r="H4" s="9">
+      <c r="O10" s="3">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6">
-        <v>3</v>
-      </c>
-      <c r="D5" s="3">
+    <row r="11" spans="7:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="7:17" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="G15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="7:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <f>G16+1</f>
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <f>H16+1</f>
+        <v>2</v>
+      </c>
+      <c r="J16" s="7">
+        <f>I16+1</f>
+        <v>3</v>
+      </c>
+      <c r="K16" s="7">
+        <f>J16+1</f>
+        <v>4</v>
+      </c>
+      <c r="L16" s="7">
+        <f>K16+1</f>
+        <v>5</v>
+      </c>
+      <c r="M16" s="7">
+        <f t="shared" ref="M16" si="3">L16+1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="3:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3">
         <v>8</v>
       </c>
-      <c r="E5" s="13">
+      <c r="I17" s="5">
+        <v>3</v>
+      </c>
+      <c r="J17" s="3">
         <v>7</v>
       </c>
-      <c r="F5" s="13">
-        <v>4</v>
-      </c>
-      <c r="G5" s="4">
-        <v>5</v>
-      </c>
-      <c r="H5" s="9">
+      <c r="K17" s="3">
+        <v>4</v>
+      </c>
+      <c r="L17" s="3">
+        <v>5</v>
+      </c>
+      <c r="M17" s="8">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="7">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2">
-        <v>5</v>
-      </c>
-      <c r="E6" s="2">
-        <v>4</v>
-      </c>
-      <c r="F6" s="8">
+    <row r="18" spans="3:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="7">
+        <v>0</v>
+      </c>
+      <c r="H19" s="7">
+        <f>G19+1</f>
+        <v>1</v>
+      </c>
+      <c r="I19" s="7">
+        <f t="shared" ref="I19" si="4">H19+1</f>
+        <v>2</v>
+      </c>
+      <c r="J19" s="7">
+        <f t="shared" ref="J19" si="5">I19+1</f>
+        <v>3</v>
+      </c>
+      <c r="K19" s="7">
+        <f t="shared" ref="K19" si="6">J19+1</f>
+        <v>4</v>
+      </c>
+      <c r="L19" s="7">
+        <f t="shared" ref="L19" si="7">K19+1</f>
+        <v>5</v>
+      </c>
+      <c r="M19" s="7">
+        <f t="shared" ref="M19" si="8">L19+1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="3:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="5">
+        <v>3</v>
+      </c>
+      <c r="I20" s="3">
+        <v>8</v>
+      </c>
+      <c r="J20" s="3">
         <v>7</v>
       </c>
-      <c r="G6" s="9">
+      <c r="K20" s="3">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3">
+        <v>5</v>
+      </c>
+      <c r="M20" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <f>C26+1</f>
+        <v>1</v>
+      </c>
+      <c r="E26" s="7">
+        <f t="shared" ref="E26" si="9">D26+1</f>
+        <v>2</v>
+      </c>
+      <c r="F26" s="7">
+        <f t="shared" ref="F26" si="10">E26+1</f>
+        <v>3</v>
+      </c>
+      <c r="G26" s="7">
+        <f t="shared" ref="G26" si="11">F26+1</f>
+        <v>4</v>
+      </c>
+      <c r="H26" s="7">
+        <f t="shared" ref="H26" si="12">G26+1</f>
+        <v>5</v>
+      </c>
+      <c r="I26" s="7">
+        <f t="shared" ref="I26" si="13">H26+1</f>
+        <v>6</v>
+      </c>
+      <c r="L26" s="7">
+        <v>0</v>
+      </c>
+      <c r="M26" s="7">
+        <f>L26+1</f>
+        <v>1</v>
+      </c>
+      <c r="N26" s="7">
+        <f t="shared" ref="N26" si="14">M26+1</f>
+        <v>2</v>
+      </c>
+      <c r="O26" s="7">
+        <f t="shared" ref="O26" si="15">N26+1</f>
+        <v>3</v>
+      </c>
+      <c r="P26" s="7">
+        <f t="shared" ref="P26" si="16">O26+1</f>
+        <v>4</v>
+      </c>
+      <c r="Q26" s="7">
+        <f t="shared" ref="Q26" si="17">P26+1</f>
+        <v>5</v>
+      </c>
+      <c r="R26" s="7">
+        <f t="shared" ref="R26" si="18">Q26+1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="11">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3">
+        <v>3</v>
+      </c>
+      <c r="E27" s="9">
         <v>8</v>
       </c>
-      <c r="H6" s="9">
+      <c r="F27" s="9">
+        <v>7</v>
+      </c>
+      <c r="G27" s="9">
+        <v>4</v>
+      </c>
+      <c r="H27" s="9">
+        <v>5</v>
+      </c>
+      <c r="I27" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" s="7">
-        <v>3</v>
-      </c>
-      <c r="D7" s="6">
-        <v>4</v>
-      </c>
-      <c r="E7" s="8">
-        <v>5</v>
-      </c>
-      <c r="F7" s="9">
+      <c r="L27" s="10">
+        <v>1</v>
+      </c>
+      <c r="M27" s="9">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3">
+        <v>8</v>
+      </c>
+      <c r="O27" s="5">
         <v>7</v>
       </c>
-      <c r="G7" s="9">
+      <c r="P27" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>5</v>
+      </c>
+      <c r="R27" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="7">
+        <v>0</v>
+      </c>
+      <c r="D29" s="7">
+        <f>C29+1</f>
+        <v>1</v>
+      </c>
+      <c r="E29" s="7">
+        <f t="shared" ref="E29" si="19">D29+1</f>
+        <v>2</v>
+      </c>
+      <c r="F29" s="7">
+        <f t="shared" ref="F29" si="20">E29+1</f>
+        <v>3</v>
+      </c>
+      <c r="G29" s="7">
+        <f t="shared" ref="G29" si="21">F29+1</f>
+        <v>4</v>
+      </c>
+      <c r="H29" s="7">
+        <f t="shared" ref="H29" si="22">G29+1</f>
+        <v>5</v>
+      </c>
+      <c r="I29" s="7">
+        <f t="shared" ref="I29" si="23">H29+1</f>
+        <v>6</v>
+      </c>
+      <c r="L29" s="7">
+        <v>0</v>
+      </c>
+      <c r="M29" s="7">
+        <f>L29+1</f>
+        <v>1</v>
+      </c>
+      <c r="N29" s="7">
+        <f t="shared" ref="N29" si="24">M29+1</f>
+        <v>2</v>
+      </c>
+      <c r="O29" s="7">
+        <f t="shared" ref="O29" si="25">N29+1</f>
+        <v>3</v>
+      </c>
+      <c r="P29" s="7">
+        <f t="shared" ref="P29" si="26">O29+1</f>
+        <v>4</v>
+      </c>
+      <c r="Q29" s="7">
+        <f t="shared" ref="Q29" si="27">P29+1</f>
+        <v>5</v>
+      </c>
+      <c r="R29" s="7">
+        <f t="shared" ref="R29" si="28">Q29+1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="11">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3">
+        <v>3</v>
+      </c>
+      <c r="E30" s="9">
         <v>8</v>
       </c>
-      <c r="H7" s="9">
+      <c r="F30" s="9">
+        <v>7</v>
+      </c>
+      <c r="G30" s="9">
+        <v>4</v>
+      </c>
+      <c r="H30" s="9">
+        <v>5</v>
+      </c>
+      <c r="I30" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="10">
-        <v>1</v>
-      </c>
-      <c r="C8" s="6">
-        <v>3</v>
-      </c>
-      <c r="D8" s="8">
-        <v>4</v>
-      </c>
-      <c r="E8" s="9">
-        <v>5</v>
-      </c>
-      <c r="F8" s="9">
+      <c r="L30" s="10">
+        <v>1</v>
+      </c>
+      <c r="M30" s="9">
+        <v>3</v>
+      </c>
+      <c r="N30" s="3">
+        <v>5</v>
+      </c>
+      <c r="O30" s="5">
         <v>7</v>
       </c>
-      <c r="G8" s="9">
+      <c r="P30" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q30" s="3">
         <v>8</v>
       </c>
-      <c r="H8" s="9">
+      <c r="R30" s="8">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="10">
-        <v>1</v>
-      </c>
-      <c r="C9" s="8">
-        <v>3</v>
-      </c>
-      <c r="D9" s="9">
-        <v>4</v>
-      </c>
-      <c r="E9" s="9">
-        <v>5</v>
-      </c>
-      <c r="F9" s="9">
+    <row r="31" spans="3:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <f>C32+1</f>
+        <v>1</v>
+      </c>
+      <c r="E32" s="7">
+        <f t="shared" ref="E32" si="29">D32+1</f>
+        <v>2</v>
+      </c>
+      <c r="F32" s="7">
+        <f t="shared" ref="F32" si="30">E32+1</f>
+        <v>3</v>
+      </c>
+      <c r="G32" s="7">
+        <f t="shared" ref="G32" si="31">F32+1</f>
+        <v>4</v>
+      </c>
+      <c r="H32" s="7">
+        <f t="shared" ref="H32" si="32">G32+1</f>
+        <v>5</v>
+      </c>
+      <c r="I32" s="7">
+        <f t="shared" ref="I32" si="33">H32+1</f>
+        <v>6</v>
+      </c>
+      <c r="L32" s="7">
+        <v>0</v>
+      </c>
+      <c r="M32" s="7">
+        <f>L32+1</f>
+        <v>1</v>
+      </c>
+      <c r="N32" s="7">
+        <f t="shared" ref="N32" si="34">M32+1</f>
+        <v>2</v>
+      </c>
+      <c r="O32" s="7">
+        <f t="shared" ref="O32" si="35">N32+1</f>
+        <v>3</v>
+      </c>
+      <c r="P32" s="7">
+        <f t="shared" ref="P32" si="36">O32+1</f>
+        <v>4</v>
+      </c>
+      <c r="Q32" s="7">
+        <f t="shared" ref="Q32" si="37">P32+1</f>
+        <v>5</v>
+      </c>
+      <c r="R32" s="7">
+        <f t="shared" ref="R32" si="38">Q32+1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="11">
+        <v>1</v>
+      </c>
+      <c r="D33" s="3">
+        <v>3</v>
+      </c>
+      <c r="E33" s="9">
+        <v>8</v>
+      </c>
+      <c r="F33" s="9">
         <v>7</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G33" s="9">
+        <v>4</v>
+      </c>
+      <c r="H33" s="9">
+        <v>5</v>
+      </c>
+      <c r="I33" s="8">
+        <v>9</v>
+      </c>
+      <c r="L33" s="10">
+        <v>1</v>
+      </c>
+      <c r="M33" s="9">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3">
+        <v>5</v>
+      </c>
+      <c r="O33" s="3">
+        <v>4</v>
+      </c>
+      <c r="P33" s="5">
+        <v>7</v>
+      </c>
+      <c r="Q33" s="3">
         <v>8</v>
       </c>
-      <c r="H9" s="9">
+      <c r="R33" s="8">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="11">
-        <v>1</v>
-      </c>
-      <c r="C10" s="12">
-        <v>3</v>
-      </c>
-      <c r="D10" s="9">
-        <v>4</v>
-      </c>
-      <c r="E10" s="9">
-        <v>5</v>
-      </c>
-      <c r="F10" s="9">
+    <row r="34" spans="2:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:22" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="J36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H37" s="12">
+        <v>0</v>
+      </c>
+      <c r="I37" s="12">
+        <f>H37+1</f>
+        <v>1</v>
+      </c>
+      <c r="J37" s="12">
+        <f t="shared" ref="J37" si="39">I37+1</f>
+        <v>2</v>
+      </c>
+      <c r="K37" s="12">
+        <f t="shared" ref="K37" si="40">J37+1</f>
+        <v>3</v>
+      </c>
+      <c r="L37" s="12">
+        <f t="shared" ref="L37" si="41">K37+1</f>
+        <v>4</v>
+      </c>
+      <c r="M37" s="12">
+        <f t="shared" ref="M37" si="42">L37+1</f>
+        <v>5</v>
+      </c>
+      <c r="N37" s="12">
+        <f t="shared" ref="N37" si="43">M37+1</f>
+        <v>6</v>
+      </c>
+      <c r="O37" s="13"/>
+      <c r="P37" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="12">
+        <f>P37+1</f>
+        <v>1</v>
+      </c>
+      <c r="R37" s="12">
+        <f t="shared" ref="R37" si="44">Q37+1</f>
+        <v>2</v>
+      </c>
+      <c r="S37" s="12">
+        <f t="shared" ref="S37" si="45">R37+1</f>
+        <v>3</v>
+      </c>
+      <c r="T37" s="12">
+        <f t="shared" ref="T37" si="46">S37+1</f>
+        <v>4</v>
+      </c>
+      <c r="U37" s="12">
+        <f t="shared" ref="U37" si="47">T37+1</f>
+        <v>5</v>
+      </c>
+      <c r="V37" s="12">
+        <f t="shared" ref="V37" si="48">U37+1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="2:22" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H38" s="14">
+        <v>1</v>
+      </c>
+      <c r="I38" s="15">
+        <v>3</v>
+      </c>
+      <c r="J38" s="5">
+        <v>5</v>
+      </c>
+      <c r="K38" s="3">
+        <v>4</v>
+      </c>
+      <c r="L38" s="15">
         <v>7</v>
       </c>
-      <c r="G10" s="9">
+      <c r="M38" s="15">
         <v>8</v>
       </c>
-      <c r="H10" s="9">
+      <c r="N38" s="16">
         <v>9</v>
+      </c>
+      <c r="O38" s="13"/>
+      <c r="P38" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="15">
+        <v>3</v>
+      </c>
+      <c r="R38" s="15">
+        <v>5</v>
+      </c>
+      <c r="S38" s="15">
+        <v>4</v>
+      </c>
+      <c r="T38" s="5">
+        <v>7</v>
+      </c>
+      <c r="U38" s="3">
+        <v>8</v>
+      </c>
+      <c r="V38" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U39" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:22" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H40" s="12">
+        <v>0</v>
+      </c>
+      <c r="I40" s="12">
+        <f>H40+1</f>
+        <v>1</v>
+      </c>
+      <c r="J40" s="12">
+        <f t="shared" ref="J40" si="49">I40+1</f>
+        <v>2</v>
+      </c>
+      <c r="K40" s="12">
+        <f t="shared" ref="K40" si="50">J40+1</f>
+        <v>3</v>
+      </c>
+      <c r="L40" s="12">
+        <f t="shared" ref="L40" si="51">K40+1</f>
+        <v>4</v>
+      </c>
+      <c r="M40" s="12">
+        <f t="shared" ref="M40" si="52">L40+1</f>
+        <v>5</v>
+      </c>
+      <c r="N40" s="12">
+        <f t="shared" ref="N40" si="53">M40+1</f>
+        <v>6</v>
+      </c>
+      <c r="P40" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="12">
+        <f>P40+1</f>
+        <v>1</v>
+      </c>
+      <c r="R40" s="12">
+        <f t="shared" ref="R40" si="54">Q40+1</f>
+        <v>2</v>
+      </c>
+      <c r="S40" s="12">
+        <f t="shared" ref="S40" si="55">R40+1</f>
+        <v>3</v>
+      </c>
+      <c r="T40" s="12">
+        <f t="shared" ref="T40" si="56">S40+1</f>
+        <v>4</v>
+      </c>
+      <c r="U40" s="12">
+        <f t="shared" ref="U40" si="57">T40+1</f>
+        <v>5</v>
+      </c>
+      <c r="V40" s="12">
+        <f t="shared" ref="V40" si="58">U40+1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="2:22" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H41" s="14">
+        <v>1</v>
+      </c>
+      <c r="I41" s="15">
+        <v>3</v>
+      </c>
+      <c r="J41" s="3">
+        <v>4</v>
+      </c>
+      <c r="K41" s="5">
+        <v>5</v>
+      </c>
+      <c r="L41" s="15">
+        <v>7</v>
+      </c>
+      <c r="M41" s="15">
+        <v>8</v>
+      </c>
+      <c r="N41" s="16">
+        <v>9</v>
+      </c>
+      <c r="P41" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="15">
+        <v>3</v>
+      </c>
+      <c r="R41" s="15">
+        <v>5</v>
+      </c>
+      <c r="S41" s="15">
+        <v>4</v>
+      </c>
+      <c r="T41" s="5">
+        <v>7</v>
+      </c>
+      <c r="U41" s="3">
+        <v>8</v>
+      </c>
+      <c r="V41" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U42" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P43" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="12">
+        <f>P43+1</f>
+        <v>1</v>
+      </c>
+      <c r="R43" s="12">
+        <f t="shared" ref="R43" si="59">Q43+1</f>
+        <v>2</v>
+      </c>
+      <c r="S43" s="12">
+        <f t="shared" ref="S43" si="60">R43+1</f>
+        <v>3</v>
+      </c>
+      <c r="T43" s="12">
+        <f t="shared" ref="T43" si="61">S43+1</f>
+        <v>4</v>
+      </c>
+      <c r="U43" s="12">
+        <f t="shared" ref="U43" si="62">T43+1</f>
+        <v>5</v>
+      </c>
+      <c r="V43" s="12">
+        <f t="shared" ref="V43" si="63">U43+1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P44" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="15">
+        <v>3</v>
+      </c>
+      <c r="R44" s="15">
+        <v>5</v>
+      </c>
+      <c r="S44" s="15">
+        <v>4</v>
+      </c>
+      <c r="T44" s="5">
+        <v>7</v>
+      </c>
+      <c r="U44" s="3">
+        <v>8</v>
+      </c>
+      <c r="V44" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U45" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>